--- a/biology/Médecine/Sargenor/Sargenor.xlsx
+++ b/biology/Médecine/Sargenor/Sargenor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sargenor est un médicament à base d'aspartate d'arginine non remboursé par la sécurité sociale française. 
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé dans le traitement de la fatigue passagère[1].
-Il obtient une autorisation de mise sur le marché le 11/12/1997 par Mylan[2].
-Il est irritant et peut à doses élevées causer des diarrhées[1],[3].
-Il possède des risques en cas d'hypersensibilités ou allergies à l'aspartate d'arginine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé dans le traitement de la fatigue passagère.
+Il obtient une autorisation de mise sur le marché le 11/12/1997 par Mylan.
+Il est irritant et peut à doses élevées causer des diarrhées,.
+Il possède des risques en cas d'hypersensibilités ou allergies à l'aspartate d'arginine.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Composition[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Principes actifs : aspartate d'arginine
 Excipients à effets notoires : saccharose, parahydroxybenzoate de propyle (E216), parahydroxybenzoate de méthyle (E218), éthanol
